--- a/biology/Botanique/Butia_laineux/Butia_laineux.xlsx
+++ b/biology/Botanique/Butia_laineux/Butia_laineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Butia eriospatha
 Le Butia laineux (Butia eriospatha) est une espèce de la famille des Arecaceae (Palmier). Elle appartient au genre Butia.
@@ -513,7 +525,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est endémique à une zone dans l'extrême Sud-est du Brésil. Elle pousse dans des zones herbeuses et des forêts d'Araucaria, entre 700 et 1200 mètres.
 Le climat y est subtropical : hivers doux avec de rares gelées, et été chauds.
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'espèce ressemble beaucoup au Butia odorata.
 Stipe : Solitaire et assez large, il atteint parfois 6 mètres de hauteur. Il est de couleur grise et conserve longtemps la base des pétioles, qui forment des sortes de grosses écailles.
@@ -580,7 +596,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est de croissance assez lente. Il supporte assez mal les sols calcaire. En France, il est possible de l'acclimater sur la côte Atlantique et sur le pourtour méditerranéen. On en trouve un exemplaire au jardin botanique de Nice.
 </t>
